--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_13_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_13_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-84402.11631578502</v>
+        <v>-68735.76098094181</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23954672.86114066</v>
+        <v>23331700.52103291</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1365217.48625625</v>
+        <v>1639999.539943989</v>
       </c>
     </row>
     <row r="11">
@@ -23270,49 +23272,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>408.3496499462784</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H11" t="n">
-        <v>313.8630332531334</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I11" t="n">
-        <v>110.681064734865</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J11" t="n">
-        <v>59.84024364032008</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K11" t="n">
-        <v>56.37184468858104</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L11" t="n">
-        <v>45.70582857298457</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M11" t="n">
-        <v>30.06347586924083</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N11" t="n">
-        <v>27.52066621168495</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>34.7424592658851</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P11" t="n">
-        <v>52.30405746936194</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q11" t="n">
-        <v>70.90673990138413</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R11" t="n">
-        <v>97.32270649593409</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S11" t="n">
-        <v>149.3192393418489</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T11" t="n">
-        <v>218.282426424783</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1406840288995</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -23349,22 +23351,22 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>118.4945968679949</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H12" t="n">
-        <v>83.8929528334216</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I12" t="n">
-        <v>52.13564518093996</v>
+        <v>49.29437938314847</v>
       </c>
       <c r="J12" t="n">
-        <v>47.99559120793558</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K12" t="n">
-        <v>30.71833619036091</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L12" t="n">
-        <v>10.89080423875676</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -23373,25 +23375,25 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>5.934500038118173</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>17.45638680680048</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.44436225885367</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R12" t="n">
-        <v>72.05307450006524</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S12" t="n">
-        <v>126.8086602394841</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T12" t="n">
-        <v>173.7442875975117</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9385235407196</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
@@ -23428,49 +23430,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2658257867129</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H13" t="n">
-        <v>151.2059250900332</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I13" t="n">
-        <v>122.5706220405871</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J13" t="n">
-        <v>60.9349123946991</v>
+        <v>56.04354441809058</v>
       </c>
       <c r="K13" t="n">
-        <v>48.34327957080569</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L13" t="n">
-        <v>42.22763413854417</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M13" t="n">
-        <v>42.38384272141672</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N13" t="n">
-        <v>36.21706801862751</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O13" t="n">
-        <v>46.78920077959938</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P13" t="n">
-        <v>52.55167994450285</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.88108513355061</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R13" t="n">
-        <v>108.917154517939</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S13" t="n">
-        <v>195.4606222432698</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T13" t="n">
-        <v>232.0557416755124</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5677299727997</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -23507,49 +23509,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>408.3496499462784</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H14" t="n">
-        <v>313.8630332531334</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I14" t="n">
-        <v>110.681064734865</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J14" t="n">
-        <v>59.84024364032008</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K14" t="n">
-        <v>56.37184468858104</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L14" t="n">
-        <v>45.70582857298457</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M14" t="n">
-        <v>30.06347586924083</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N14" t="n">
-        <v>27.52066621168495</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>34.7424592658851</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P14" t="n">
-        <v>52.30405746936194</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q14" t="n">
-        <v>70.90673990138413</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R14" t="n">
-        <v>97.32270649593409</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S14" t="n">
-        <v>149.3192393418489</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T14" t="n">
-        <v>218.282426424783</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1406840288995</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23586,22 +23588,22 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>118.4945968679949</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H15" t="n">
-        <v>83.8929528334216</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I15" t="n">
-        <v>52.13564518093996</v>
+        <v>49.29437938314847</v>
       </c>
       <c r="J15" t="n">
-        <v>47.99559120793558</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K15" t="n">
-        <v>30.71833619036091</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L15" t="n">
-        <v>10.89080423875676</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -23610,25 +23612,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>5.934500038118173</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>17.45638680680048</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.44436225885367</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R15" t="n">
-        <v>72.05307450006524</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S15" t="n">
-        <v>126.8086602394841</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T15" t="n">
-        <v>173.7442875975117</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U15" t="n">
-        <v>207.9385235407196</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
@@ -23665,49 +23667,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2658257867129</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H16" t="n">
-        <v>151.2059250900332</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I16" t="n">
-        <v>122.5706220405871</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J16" t="n">
-        <v>60.9349123946991</v>
+        <v>56.04354441809058</v>
       </c>
       <c r="K16" t="n">
-        <v>48.34327957080569</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L16" t="n">
-        <v>42.22763413854417</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M16" t="n">
-        <v>42.38384272141672</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N16" t="n">
-        <v>36.21706801862751</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O16" t="n">
-        <v>46.78920077959938</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P16" t="n">
-        <v>52.55167994450285</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q16" t="n">
-        <v>72.88108513355061</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R16" t="n">
-        <v>108.917154517939</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S16" t="n">
-        <v>195.4606222432698</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T16" t="n">
-        <v>232.0557416755124</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5677299727997</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -23744,49 +23746,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>408.3496499462784</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H17" t="n">
-        <v>313.8630332531334</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I17" t="n">
-        <v>110.681064734865</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J17" t="n">
-        <v>59.84024364032008</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K17" t="n">
-        <v>56.37184468858104</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L17" t="n">
-        <v>45.70582857298457</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M17" t="n">
-        <v>30.06347586924083</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N17" t="n">
-        <v>27.52066621168495</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>34.7424592658851</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P17" t="n">
-        <v>52.30405746936194</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q17" t="n">
-        <v>70.90673990138413</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R17" t="n">
-        <v>97.32270649593409</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S17" t="n">
-        <v>149.3192393418489</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T17" t="n">
-        <v>218.282426424783</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1406840288995</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -23823,22 +23825,22 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>118.4945968679949</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H18" t="n">
-        <v>83.8929528334216</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I18" t="n">
-        <v>52.13564518093996</v>
+        <v>49.29437938314847</v>
       </c>
       <c r="J18" t="n">
-        <v>47.99559120793558</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K18" t="n">
-        <v>30.71833619036091</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L18" t="n">
-        <v>10.89080423875676</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23847,25 +23849,25 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>5.934500038118173</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>17.45638680680048</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.44436225885367</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R18" t="n">
-        <v>72.05307450006524</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S18" t="n">
-        <v>126.8086602394841</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T18" t="n">
-        <v>173.7442875975117</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U18" t="n">
-        <v>207.9385235407196</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V18" t="n">
         <v>220.3146016126436</v>
@@ -23902,49 +23904,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2658257867129</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H19" t="n">
-        <v>151.2059250900332</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I19" t="n">
-        <v>122.5706220405871</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J19" t="n">
-        <v>60.9349123946991</v>
+        <v>56.04354441809058</v>
       </c>
       <c r="K19" t="n">
-        <v>48.34327957080569</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L19" t="n">
-        <v>42.22763413854417</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M19" t="n">
-        <v>42.38384272141672</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N19" t="n">
-        <v>36.21706801862751</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O19" t="n">
-        <v>46.78920077959938</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P19" t="n">
-        <v>52.55167994450285</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q19" t="n">
-        <v>72.88108513355061</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R19" t="n">
-        <v>108.917154517939</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S19" t="n">
-        <v>195.4606222432698</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T19" t="n">
-        <v>232.0557416755124</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5677299727997</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -23981,49 +23983,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>408.3496499462784</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H20" t="n">
-        <v>313.8630332531334</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I20" t="n">
-        <v>110.681064734865</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J20" t="n">
-        <v>59.84024364032008</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K20" t="n">
-        <v>56.37184468858104</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L20" t="n">
-        <v>45.70582857298457</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M20" t="n">
-        <v>30.06347586924083</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N20" t="n">
-        <v>27.52066621168495</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>34.7424592658851</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P20" t="n">
-        <v>52.30405746936194</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q20" t="n">
-        <v>70.90673990138413</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R20" t="n">
-        <v>97.32270649593409</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S20" t="n">
-        <v>149.3192393418489</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T20" t="n">
-        <v>218.282426424783</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1406840288995</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -24060,22 +24062,22 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>118.4945968679949</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H21" t="n">
-        <v>83.8929528334216</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I21" t="n">
-        <v>52.13564518093996</v>
+        <v>49.29437938314847</v>
       </c>
       <c r="J21" t="n">
-        <v>47.99559120793558</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K21" t="n">
-        <v>30.71833619036091</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L21" t="n">
-        <v>10.89080423875676</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -24084,25 +24086,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>5.934500038118173</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>17.45638680680048</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.44436225885367</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R21" t="n">
-        <v>72.05307450006524</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S21" t="n">
-        <v>126.8086602394841</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T21" t="n">
-        <v>173.7442875975117</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U21" t="n">
-        <v>207.9385235407196</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -24139,49 +24141,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2658257867129</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H22" t="n">
-        <v>151.2059250900332</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I22" t="n">
-        <v>122.5706220405871</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J22" t="n">
-        <v>60.9349123946991</v>
+        <v>56.04354441809058</v>
       </c>
       <c r="K22" t="n">
-        <v>48.34327957080569</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L22" t="n">
-        <v>42.22763413854417</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M22" t="n">
-        <v>42.38384272141672</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N22" t="n">
-        <v>36.21706801862751</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O22" t="n">
-        <v>46.78920077959938</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P22" t="n">
-        <v>52.55167994450285</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q22" t="n">
-        <v>72.88108513355061</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R22" t="n">
-        <v>108.917154517939</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S22" t="n">
-        <v>195.4606222432698</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T22" t="n">
-        <v>232.0557416755124</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5677299727997</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24218,49 +24220,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>408.3496499462784</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H23" t="n">
-        <v>313.8630332531334</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I23" t="n">
-        <v>110.681064734865</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J23" t="n">
-        <v>59.84024364032008</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K23" t="n">
-        <v>56.37184468858104</v>
+        <v>36.75248193446048</v>
       </c>
       <c r="L23" t="n">
-        <v>45.70582857298457</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M23" t="n">
-        <v>30.06347586924083</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N23" t="n">
-        <v>27.52066621168495</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>34.7424592658851</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P23" t="n">
-        <v>52.30405746936194</v>
+        <v>30.1247672499621</v>
       </c>
       <c r="Q23" t="n">
-        <v>70.90673990138413</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R23" t="n">
-        <v>97.32270649593409</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S23" t="n">
-        <v>149.3192393418489</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T23" t="n">
-        <v>218.282426424783</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1406840288995</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24297,22 +24299,22 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>118.4945968679949</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H24" t="n">
-        <v>83.8929528334216</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I24" t="n">
-        <v>52.13564518093996</v>
+        <v>49.29437938314847</v>
       </c>
       <c r="J24" t="n">
-        <v>47.99559120793558</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K24" t="n">
-        <v>30.71833619036091</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L24" t="n">
-        <v>10.89080423875676</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -24321,25 +24323,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>5.934500038118173</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>17.45638680680048</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.44436225885367</v>
+        <v>33.91032407045576</v>
       </c>
       <c r="R24" t="n">
-        <v>72.05307450006524</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S24" t="n">
-        <v>126.8086602394841</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T24" t="n">
-        <v>173.7442875975117</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U24" t="n">
-        <v>207.9385235407196</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V24" t="n">
         <v>220.3146016126436</v>
@@ -24376,49 +24378,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>166.2658257867129</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H25" t="n">
-        <v>151.2059250900332</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I25" t="n">
-        <v>122.5706220405871</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J25" t="n">
-        <v>60.9349123946991</v>
+        <v>56.04354441809058</v>
       </c>
       <c r="K25" t="n">
-        <v>48.34327957080569</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L25" t="n">
-        <v>42.22763413854417</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M25" t="n">
-        <v>42.38384272141672</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N25" t="n">
-        <v>36.21706801862751</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O25" t="n">
-        <v>46.78920077959938</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P25" t="n">
-        <v>52.55167994450285</v>
+        <v>44.18408838467262</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.88108513355061</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R25" t="n">
-        <v>108.917154517939</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S25" t="n">
-        <v>195.4606222432698</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T25" t="n">
-        <v>232.0557416755124</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5677299727997</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -24455,49 +24457,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>408.3496499462784</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H26" t="n">
-        <v>313.8630332531334</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I26" t="n">
-        <v>110.681064734865</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J26" t="n">
-        <v>59.84024364032008</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K26" t="n">
-        <v>56.37184468858105</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L26" t="n">
-        <v>45.70582857298459</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M26" t="n">
-        <v>30.06347586924085</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N26" t="n">
-        <v>27.52066621168497</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>34.74245926588512</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P26" t="n">
-        <v>52.30405746936195</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q26" t="n">
-        <v>70.90673990138413</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R26" t="n">
-        <v>97.3227064959341</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S26" t="n">
-        <v>149.3192393418489</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T26" t="n">
-        <v>218.282426424783</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1406840288995</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -24534,22 +24536,22 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>118.4945968679949</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H27" t="n">
-        <v>83.8929528334216</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I27" t="n">
-        <v>52.13564518093996</v>
+        <v>49.29437938314847</v>
       </c>
       <c r="J27" t="n">
-        <v>47.99559120793559</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K27" t="n">
-        <v>30.71833619036092</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L27" t="n">
-        <v>10.89080423875677</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -24558,25 +24560,25 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>5.934500038118173</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>17.4563868068005</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.44436225885367</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R27" t="n">
-        <v>72.05307450006524</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S27" t="n">
-        <v>126.8086602394841</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T27" t="n">
-        <v>173.7442875975117</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U27" t="n">
-        <v>207.9385235407196</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V27" t="n">
         <v>220.3146016126436</v>
@@ -24613,49 +24615,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.2658257867129</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H28" t="n">
-        <v>151.2059250900332</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I28" t="n">
-        <v>122.5706220405871</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J28" t="n">
-        <v>60.9349123946991</v>
+        <v>56.04354441809058</v>
       </c>
       <c r="K28" t="n">
-        <v>48.3432795708057</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L28" t="n">
-        <v>42.22763413854418</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M28" t="n">
-        <v>42.38384272141673</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N28" t="n">
-        <v>36.21706801862751</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O28" t="n">
-        <v>46.78920077959938</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P28" t="n">
-        <v>52.55167994450285</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.88108513355061</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R28" t="n">
-        <v>108.917154517939</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S28" t="n">
-        <v>195.4606222432698</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T28" t="n">
-        <v>232.0557416755124</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5677299727997</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -24692,49 +24694,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>408.3496499462784</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H29" t="n">
-        <v>313.8630332531334</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I29" t="n">
-        <v>110.681064734865</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J29" t="n">
-        <v>59.84024364032008</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K29" t="n">
-        <v>56.37184468858104</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L29" t="n">
-        <v>45.70582857298457</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M29" t="n">
-        <v>30.06347586924083</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N29" t="n">
-        <v>27.52066621168495</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>34.7424592658851</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P29" t="n">
-        <v>52.30405746936194</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q29" t="n">
-        <v>70.90673990138413</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R29" t="n">
-        <v>97.32270649593409</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S29" t="n">
-        <v>149.3192393418489</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T29" t="n">
-        <v>218.282426424783</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1406840288995</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24771,22 +24773,22 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>118.4945968679949</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H30" t="n">
-        <v>83.8929528334216</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I30" t="n">
-        <v>52.13564518093996</v>
+        <v>49.29437938314847</v>
       </c>
       <c r="J30" t="n">
-        <v>47.99559120793558</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K30" t="n">
-        <v>30.71833619036091</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L30" t="n">
-        <v>10.89080423875676</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -24795,25 +24797,25 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>5.934500038118173</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>17.45638680680048</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.44436225885367</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R30" t="n">
-        <v>72.05307450006524</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S30" t="n">
-        <v>126.8086602394841</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T30" t="n">
-        <v>173.7442875975117</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U30" t="n">
-        <v>207.9385235407196</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V30" t="n">
         <v>220.3146016126436</v>
@@ -24850,49 +24852,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.2658257867129</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H31" t="n">
-        <v>151.2059250900332</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I31" t="n">
-        <v>122.5706220405871</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J31" t="n">
-        <v>60.9349123946991</v>
+        <v>56.04354441809058</v>
       </c>
       <c r="K31" t="n">
-        <v>48.34327957080569</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L31" t="n">
-        <v>42.22763413854417</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M31" t="n">
-        <v>42.38384272141672</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N31" t="n">
-        <v>36.21706801862751</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O31" t="n">
-        <v>46.78920077959938</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P31" t="n">
-        <v>52.55167994450285</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.88108513355061</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R31" t="n">
-        <v>108.917154517939</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S31" t="n">
-        <v>195.4606222432698</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T31" t="n">
-        <v>232.0557416755124</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5677299727997</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -24929,49 +24931,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>408.3496499462784</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H32" t="n">
-        <v>313.8630332531334</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I32" t="n">
-        <v>110.681064734865</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J32" t="n">
-        <v>59.84024364032008</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K32" t="n">
-        <v>56.37184468858104</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L32" t="n">
-        <v>45.70582857298457</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M32" t="n">
-        <v>30.06347586924083</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N32" t="n">
-        <v>27.52066621168495</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>34.7424592658851</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P32" t="n">
-        <v>52.30405746936194</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q32" t="n">
-        <v>70.90673990138413</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R32" t="n">
-        <v>97.32270649593409</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S32" t="n">
-        <v>149.3192393418489</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T32" t="n">
-        <v>218.282426424783</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1406840288995</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -25008,22 +25010,22 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>118.4945968679949</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H33" t="n">
-        <v>83.8929528334216</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I33" t="n">
-        <v>52.13564518093996</v>
+        <v>49.29437938314847</v>
       </c>
       <c r="J33" t="n">
-        <v>47.99559120793558</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K33" t="n">
-        <v>30.71833619036091</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L33" t="n">
-        <v>10.89080423875676</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -25032,25 +25034,25 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>5.934500038118173</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>17.45638680680048</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.44436225885367</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R33" t="n">
-        <v>72.05307450006524</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S33" t="n">
-        <v>126.8086602394841</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T33" t="n">
-        <v>173.7442875975117</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U33" t="n">
-        <v>207.9385235407196</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V33" t="n">
         <v>220.3146016126436</v>
@@ -25087,49 +25089,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>166.2658257867129</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H34" t="n">
-        <v>151.2059250900332</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I34" t="n">
-        <v>122.5706220405871</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J34" t="n">
-        <v>60.9349123946991</v>
+        <v>56.04354441809058</v>
       </c>
       <c r="K34" t="n">
-        <v>48.34327957080569</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L34" t="n">
-        <v>42.22763413854417</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M34" t="n">
-        <v>42.38384272141672</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N34" t="n">
-        <v>36.21706801862751</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O34" t="n">
-        <v>46.78920077959938</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P34" t="n">
-        <v>52.55167994450285</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.88108513355061</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R34" t="n">
-        <v>108.917154517939</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S34" t="n">
-        <v>195.4606222432698</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T34" t="n">
-        <v>232.0557416755124</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5677299727997</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -25166,49 +25168,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>408.3496499462784</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H35" t="n">
-        <v>313.8630332531334</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I35" t="n">
-        <v>110.681064734865</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J35" t="n">
-        <v>59.84024364032008</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K35" t="n">
-        <v>56.37184468858104</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L35" t="n">
-        <v>45.70582857298457</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M35" t="n">
-        <v>30.06347586924083</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N35" t="n">
-        <v>27.52066621168495</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>34.7424592658851</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P35" t="n">
-        <v>52.30405746936194</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q35" t="n">
-        <v>70.90673990138413</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R35" t="n">
-        <v>97.32270649593409</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S35" t="n">
-        <v>149.3192393418489</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T35" t="n">
-        <v>218.282426424783</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1406840288995</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25245,22 +25247,22 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>118.4945968679949</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H36" t="n">
-        <v>83.8929528334216</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I36" t="n">
-        <v>52.13564518093996</v>
+        <v>49.29437938314847</v>
       </c>
       <c r="J36" t="n">
-        <v>47.99559120793558</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K36" t="n">
-        <v>30.71833619036091</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L36" t="n">
-        <v>10.89080423875676</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -25269,25 +25271,25 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>5.934500038118173</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>17.45638680680048</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.44436225885367</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R36" t="n">
-        <v>72.05307450006524</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S36" t="n">
-        <v>126.8086602394841</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T36" t="n">
-        <v>173.7442875975117</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U36" t="n">
-        <v>207.9385235407196</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
@@ -25324,49 +25326,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.2658257867129</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H37" t="n">
-        <v>151.2059250900332</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I37" t="n">
-        <v>122.5706220405871</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J37" t="n">
-        <v>60.9349123946991</v>
+        <v>56.04354441809058</v>
       </c>
       <c r="K37" t="n">
-        <v>48.34327957080569</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L37" t="n">
-        <v>42.22763413854417</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M37" t="n">
-        <v>42.38384272141672</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N37" t="n">
-        <v>36.21706801862751</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O37" t="n">
-        <v>46.78920077959938</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P37" t="n">
-        <v>52.55167994450285</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.88108513355061</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R37" t="n">
-        <v>108.917154517939</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S37" t="n">
-        <v>195.4606222432698</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T37" t="n">
-        <v>232.0557416755124</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5677299727997</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25403,49 +25405,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>408.3496499462784</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H38" t="n">
-        <v>313.8630332531334</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I38" t="n">
-        <v>110.681064734865</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J38" t="n">
-        <v>59.84024364032008</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K38" t="n">
-        <v>56.37184468858104</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L38" t="n">
-        <v>45.70582857298457</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M38" t="n">
-        <v>30.06347586924083</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N38" t="n">
-        <v>27.52066621168495</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>34.7424592658851</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P38" t="n">
-        <v>52.30405746936194</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q38" t="n">
-        <v>70.90673990138413</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R38" t="n">
-        <v>97.32270649593409</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S38" t="n">
-        <v>149.3192393418489</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T38" t="n">
-        <v>218.282426424783</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1406840288995</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25482,22 +25484,22 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>118.4945968679949</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H39" t="n">
-        <v>83.8929528334216</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I39" t="n">
-        <v>52.13564518093996</v>
+        <v>49.29437938314847</v>
       </c>
       <c r="J39" t="n">
-        <v>47.99559120793558</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K39" t="n">
-        <v>30.71833619036091</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L39" t="n">
-        <v>10.89080423875676</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -25506,25 +25508,25 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>5.934500038118173</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>17.45638680680048</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.44436225885367</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R39" t="n">
-        <v>72.05307450006524</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S39" t="n">
-        <v>126.8086602394841</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T39" t="n">
-        <v>173.7442875975117</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U39" t="n">
-        <v>207.9385235407196</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
@@ -25561,49 +25563,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>166.2658257867129</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H40" t="n">
-        <v>151.2059250900332</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I40" t="n">
-        <v>122.5706220405871</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J40" t="n">
-        <v>60.9349123946991</v>
+        <v>56.04354441809058</v>
       </c>
       <c r="K40" t="n">
-        <v>48.34327957080569</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L40" t="n">
-        <v>42.22763413854417</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M40" t="n">
-        <v>42.38384272141672</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N40" t="n">
-        <v>36.21706801862751</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O40" t="n">
-        <v>46.78920077959938</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P40" t="n">
-        <v>52.55167994450285</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.88108513355061</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R40" t="n">
-        <v>108.917154517939</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S40" t="n">
-        <v>195.4606222432698</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T40" t="n">
-        <v>232.0557416755124</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5677299727997</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25640,49 +25642,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>408.3496499462784</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H41" t="n">
-        <v>313.8630332531334</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I41" t="n">
-        <v>110.681064734865</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J41" t="n">
-        <v>59.84024364032008</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K41" t="n">
-        <v>56.37184468858104</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L41" t="n">
-        <v>45.70582857298457</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M41" t="n">
-        <v>30.06347586924083</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N41" t="n">
-        <v>27.52066621168495</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>34.7424592658851</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P41" t="n">
-        <v>52.30405746936194</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q41" t="n">
-        <v>70.90673990138413</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R41" t="n">
-        <v>97.32270649593409</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S41" t="n">
-        <v>149.3192393418489</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T41" t="n">
-        <v>218.282426424783</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1406840288995</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25719,22 +25721,22 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>118.4945968679949</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H42" t="n">
-        <v>83.8929528334216</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I42" t="n">
-        <v>52.13564518093996</v>
+        <v>49.29437938314847</v>
       </c>
       <c r="J42" t="n">
-        <v>47.99559120793558</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K42" t="n">
-        <v>30.71833619036091</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L42" t="n">
-        <v>10.89080423875676</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -25743,25 +25745,25 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>5.934500038118173</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>17.45638680680048</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.44436225885367</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R42" t="n">
-        <v>72.05307450006524</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S42" t="n">
-        <v>126.8086602394841</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T42" t="n">
-        <v>173.7442875975117</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U42" t="n">
-        <v>207.9385235407196</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
@@ -25798,49 +25800,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>166.2658257867129</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H43" t="n">
-        <v>151.2059250900332</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I43" t="n">
-        <v>122.5706220405871</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J43" t="n">
-        <v>60.9349123946991</v>
+        <v>56.04354441809058</v>
       </c>
       <c r="K43" t="n">
-        <v>48.34327957080569</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L43" t="n">
-        <v>42.22763413854417</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M43" t="n">
-        <v>42.38384272141672</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N43" t="n">
-        <v>36.21706801862751</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O43" t="n">
-        <v>46.78920077959938</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P43" t="n">
-        <v>52.55167994450285</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.88108513355061</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R43" t="n">
-        <v>108.917154517939</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S43" t="n">
-        <v>195.4606222432698</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T43" t="n">
-        <v>232.0557416755124</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5677299727997</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -25877,49 +25879,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.3496499462784</v>
+        <v>408.195414220098</v>
       </c>
       <c r="H44" t="n">
-        <v>313.8630332531334</v>
+        <v>312.2834666223883</v>
       </c>
       <c r="I44" t="n">
-        <v>110.681064734865</v>
+        <v>104.7348919012949</v>
       </c>
       <c r="J44" t="n">
-        <v>59.84024364032008</v>
+        <v>46.74967917541601</v>
       </c>
       <c r="K44" t="n">
-        <v>56.37184468858104</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L44" t="n">
-        <v>45.70582857298457</v>
+        <v>21.36627421377045</v>
       </c>
       <c r="M44" t="n">
-        <v>30.06347586924083</v>
+        <v>2.981031914565961</v>
       </c>
       <c r="N44" t="n">
-        <v>27.52066621168495</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>34.7424592658851</v>
+        <v>8.75547455640654</v>
       </c>
       <c r="P44" t="n">
-        <v>52.30405746936194</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q44" t="n">
-        <v>70.90673990138413</v>
+        <v>54.25101662582001</v>
       </c>
       <c r="R44" t="n">
-        <v>97.32270649593409</v>
+        <v>87.63419656125427</v>
       </c>
       <c r="S44" t="n">
-        <v>149.3192393418489</v>
+        <v>145.8045927315129</v>
       </c>
       <c r="T44" t="n">
-        <v>218.282426424783</v>
+        <v>217.6072595334283</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1406840288995</v>
+        <v>253.1283451708051</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25956,22 +25958,22 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.4945968679949</v>
+        <v>118.4120734792183</v>
       </c>
       <c r="H45" t="n">
-        <v>83.8929528334216</v>
+        <v>83.09595063128953</v>
       </c>
       <c r="I45" t="n">
-        <v>52.13564518093996</v>
+        <v>49.29437938314847</v>
       </c>
       <c r="J45" t="n">
-        <v>47.99559120793558</v>
+        <v>40.19894069198317</v>
       </c>
       <c r="K45" t="n">
-        <v>30.71833619036091</v>
+        <v>17.39261862637501</v>
       </c>
       <c r="L45" t="n">
-        <v>10.89080423875676</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -25980,25 +25982,25 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>5.934500038118173</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>17.45638680680048</v>
+        <v>1.698038997342408</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.44436225885367</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R45" t="n">
-        <v>72.05307450006524</v>
+        <v>66.92938550216252</v>
       </c>
       <c r="S45" t="n">
-        <v>126.8086602394841</v>
+        <v>125.2758244874271</v>
       </c>
       <c r="T45" t="n">
-        <v>173.7442875975117</v>
+        <v>173.4116604295919</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9385235407196</v>
+        <v>207.9330943704054</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -26035,49 +26037,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.2658257867129</v>
+        <v>166.1966409497028</v>
       </c>
       <c r="H46" t="n">
-        <v>151.2059250900332</v>
+        <v>150.5908089937078</v>
       </c>
       <c r="I46" t="n">
-        <v>122.5706220405871</v>
+        <v>120.4900453057766</v>
       </c>
       <c r="J46" t="n">
-        <v>60.9349123946991</v>
+        <v>56.04354441809058</v>
       </c>
       <c r="K46" t="n">
-        <v>48.34327957080569</v>
+        <v>40.30525941636866</v>
       </c>
       <c r="L46" t="n">
-        <v>42.22763413854417</v>
+        <v>31.94173573434517</v>
       </c>
       <c r="M46" t="n">
-        <v>42.38384272141672</v>
+        <v>31.538805043564</v>
       </c>
       <c r="N46" t="n">
-        <v>36.21706801862751</v>
+        <v>25.62990109690304</v>
       </c>
       <c r="O46" t="n">
-        <v>46.78920077959938</v>
+        <v>37.0102385447647</v>
       </c>
       <c r="P46" t="n">
-        <v>52.55167994450285</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.88108513355061</v>
+        <v>67.08779846355691</v>
       </c>
       <c r="R46" t="n">
-        <v>108.917154517939</v>
+        <v>105.8063526647429</v>
       </c>
       <c r="S46" t="n">
-        <v>195.4606222432698</v>
+        <v>194.2549192201042</v>
       </c>
       <c r="T46" t="n">
-        <v>232.0557416755124</v>
+        <v>231.7601337355605</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5677299727997</v>
+        <v>282.5639562544173</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>157336.9875205275</v>
+        <v>189004.7481426748</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>157336.9875205275</v>
+        <v>189004.7481426748</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>157336.9875205275</v>
+        <v>189004.7481426748</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>157336.9875205275</v>
+        <v>189004.7481426748</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>157336.9875205275</v>
+        <v>189004.7481426748</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>157336.9875205274</v>
+        <v>189004.7481426748</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>157336.9875205275</v>
+        <v>189004.7481426748</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>157336.9875205275</v>
+        <v>189004.7481426748</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>157336.9875205275</v>
+        <v>189004.7481426748</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>157336.9875205275</v>
+        <v>189004.7481426748</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>157336.9875205275</v>
+        <v>189004.7481426748</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>157336.9875205275</v>
+        <v>189004.7481426748</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23213.65389647125</v>
+        <v>27885.94644727988</v>
       </c>
       <c r="F2" t="n">
-        <v>23213.65389647125</v>
+        <v>27885.94644727988</v>
       </c>
       <c r="G2" t="n">
-        <v>23213.65389647125</v>
+        <v>27885.94644727987</v>
       </c>
       <c r="H2" t="n">
-        <v>23213.65389647125</v>
+        <v>27885.94644727988</v>
       </c>
       <c r="I2" t="n">
-        <v>23213.65389647125</v>
+        <v>27885.94644727988</v>
       </c>
       <c r="J2" t="n">
-        <v>23213.65389647125</v>
+        <v>27885.94644727987</v>
       </c>
       <c r="K2" t="n">
-        <v>23213.65389647125</v>
+        <v>27885.94644727987</v>
       </c>
       <c r="L2" t="n">
-        <v>23213.65389647125</v>
+        <v>27885.94644727988</v>
       </c>
       <c r="M2" t="n">
-        <v>23213.65389647126</v>
+        <v>27885.94644727988</v>
       </c>
       <c r="N2" t="n">
-        <v>23213.65389647126</v>
+        <v>27885.94644727987</v>
       </c>
       <c r="O2" t="n">
-        <v>23213.65389647126</v>
+        <v>27885.94644727988</v>
       </c>
       <c r="P2" t="n">
-        <v>23213.65389647126</v>
+        <v>27885.94644727988</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>136190.9926895107</v>
+        <v>167014.4621632389</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3695.484881972478</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="F5" t="n">
-        <v>3695.484881972478</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="G5" t="n">
-        <v>3695.484881972478</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="H5" t="n">
-        <v>3695.484881972478</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="I5" t="n">
-        <v>3695.484881972478</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="J5" t="n">
-        <v>3695.484881972477</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="K5" t="n">
-        <v>3695.484881972478</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="L5" t="n">
-        <v>3695.484881972478</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="M5" t="n">
-        <v>3695.484881972478</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="N5" t="n">
-        <v>3695.484881972478</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="O5" t="n">
-        <v>3695.484881972478</v>
+        <v>4531.866666117264</v>
       </c>
       <c r="P5" t="n">
-        <v>3695.484881972478</v>
+        <v>4531.866666117264</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-116672.823675012</v>
+        <v>-143660.3823820763</v>
       </c>
       <c r="F6" t="n">
-        <v>19518.16901449877</v>
+        <v>23354.07978116261</v>
       </c>
       <c r="G6" t="n">
-        <v>19518.16901449877</v>
+        <v>23354.07978116261</v>
       </c>
       <c r="H6" t="n">
-        <v>19518.16901449877</v>
+        <v>23354.07978116261</v>
       </c>
       <c r="I6" t="n">
-        <v>19518.16901449877</v>
+        <v>23354.07978116261</v>
       </c>
       <c r="J6" t="n">
-        <v>19518.16901449878</v>
+        <v>23354.07978116261</v>
       </c>
       <c r="K6" t="n">
-        <v>19518.16901449877</v>
+        <v>23354.07978116261</v>
       </c>
       <c r="L6" t="n">
-        <v>19518.16901449877</v>
+        <v>23354.07978116261</v>
       </c>
       <c r="M6" t="n">
-        <v>19518.16901449878</v>
+        <v>23354.07978116261</v>
       </c>
       <c r="N6" t="n">
-        <v>19518.16901449878</v>
+        <v>23354.07978116261</v>
       </c>
       <c r="O6" t="n">
-        <v>19518.16901449878</v>
+        <v>23354.07978116261</v>
       </c>
       <c r="P6" t="n">
-        <v>19518.16901449878</v>
+        <v>23354.07978116261</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>169.5176551363522</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="F3" t="n">
-        <v>169.5176551363522</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="G3" t="n">
-        <v>169.5176551363522</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="H3" t="n">
-        <v>169.5176551363522</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="I3" t="n">
-        <v>169.5176551363522</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="J3" t="n">
-        <v>169.5176551363521</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="K3" t="n">
-        <v>169.5176551363522</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="L3" t="n">
-        <v>169.5176551363522</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="M3" t="n">
-        <v>169.5176551363522</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="N3" t="n">
-        <v>169.5176551363522</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="O3" t="n">
-        <v>169.5176551363522</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="P3" t="n">
-        <v>169.5176551363522</v>
+        <v>207.8837920237277</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>169.5176551363522</v>
+        <v>207.8837920237277</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6814780105984002</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H11" t="n">
-        <v>6.979186676040868</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I11" t="n">
-        <v>26.27268100359485</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J11" t="n">
-        <v>57.83959430202602</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K11" t="n">
-        <v>86.68655849065632</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L11" t="n">
-        <v>107.5423411575071</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M11" t="n">
-        <v>119.6615757284864</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N11" t="n">
-        <v>121.5978251260991</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O11" t="n">
-        <v>114.8213781582113</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P11" t="n">
-        <v>97.99738977156326</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q11" t="n">
-        <v>73.59195851700804</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R11" t="n">
-        <v>42.80789308325179</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S11" t="n">
-        <v>15.52918016651106</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T11" t="n">
-        <v>2.983169991394498</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U11" t="n">
-        <v>0.054518240847872</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3646228808593235</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H12" t="n">
-        <v>3.521489401983468</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I12" t="n">
-        <v>12.55390181906004</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J12" t="n">
-        <v>34.44886612539776</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K12" t="n">
-        <v>58.87859914297244</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L12" t="n">
-        <v>79.16954261816147</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931193</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>86.75305885077071</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>69.62697801251417</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.54379089706033</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R12" t="n">
-        <v>22.63860307651134</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S12" t="n">
-        <v>6.772710089645765</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T12" t="n">
-        <v>1.46968608556894</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02398834742495551</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3056875748360449</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H13" t="n">
-        <v>2.717840438087746</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I13" t="n">
-        <v>9.192859068705788</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J13" t="n">
-        <v>21.61211154090837</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K13" t="n">
-        <v>35.5153382400423</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L13" t="n">
-        <v>45.44740544426072</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M13" t="n">
-        <v>47.91791684452655</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N13" t="n">
-        <v>46.77853588377406</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O13" t="n">
-        <v>43.20754921409843</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P13" t="n">
-        <v>36.97152268744308</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.59716592558918</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R13" t="n">
-        <v>13.7448249558098</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S13" t="n">
-        <v>5.327300736006344</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T13" t="n">
-        <v>1.306119637935828</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01667386771832974</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6814780105984002</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H14" t="n">
-        <v>6.979186676040868</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I14" t="n">
-        <v>26.27268100359485</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J14" t="n">
-        <v>57.83959430202602</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K14" t="n">
-        <v>86.68655849065632</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L14" t="n">
-        <v>107.5423411575071</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M14" t="n">
-        <v>119.6615757284864</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N14" t="n">
-        <v>121.5978251260991</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O14" t="n">
-        <v>114.8213781582113</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P14" t="n">
-        <v>97.99738977156326</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q14" t="n">
-        <v>73.59195851700804</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R14" t="n">
-        <v>42.80789308325179</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S14" t="n">
-        <v>15.52918016651106</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T14" t="n">
-        <v>2.983169991394498</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U14" t="n">
-        <v>0.054518240847872</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3646228808593235</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H15" t="n">
-        <v>3.521489401983468</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I15" t="n">
-        <v>12.55390181906004</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J15" t="n">
-        <v>34.44886612539776</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K15" t="n">
-        <v>58.87859914297244</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L15" t="n">
-        <v>79.16954261816147</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931193</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>86.75305885077071</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>69.62697801251417</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.54379089706033</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R15" t="n">
-        <v>22.63860307651134</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S15" t="n">
-        <v>6.772710089645765</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T15" t="n">
-        <v>1.46968608556894</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02398834742495551</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3056875748360449</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H16" t="n">
-        <v>2.717840438087746</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I16" t="n">
-        <v>9.192859068705788</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J16" t="n">
-        <v>21.61211154090837</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K16" t="n">
-        <v>35.5153382400423</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L16" t="n">
-        <v>45.44740544426072</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M16" t="n">
-        <v>47.91791684452655</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N16" t="n">
-        <v>46.77853588377406</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O16" t="n">
-        <v>43.20754921409843</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P16" t="n">
-        <v>36.97152268744308</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.59716592558918</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R16" t="n">
-        <v>13.7448249558098</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S16" t="n">
-        <v>5.327300736006344</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T16" t="n">
-        <v>1.306119637935828</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01667386771832974</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6814780105984002</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H17" t="n">
-        <v>6.979186676040868</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I17" t="n">
-        <v>26.27268100359485</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J17" t="n">
-        <v>57.83959430202602</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K17" t="n">
-        <v>86.68655849065632</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L17" t="n">
-        <v>107.5423411575071</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M17" t="n">
-        <v>119.6615757284864</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N17" t="n">
-        <v>121.5978251260991</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O17" t="n">
-        <v>114.8213781582113</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P17" t="n">
-        <v>97.99738977156326</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q17" t="n">
-        <v>73.59195851700804</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R17" t="n">
-        <v>42.80789308325179</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S17" t="n">
-        <v>15.52918016651106</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T17" t="n">
-        <v>2.983169991394498</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U17" t="n">
-        <v>0.054518240847872</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3646228808593235</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H18" t="n">
-        <v>3.521489401983468</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I18" t="n">
-        <v>12.55390181906004</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J18" t="n">
-        <v>34.44886612539776</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K18" t="n">
-        <v>58.87859914297244</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L18" t="n">
-        <v>79.16954261816147</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>92.38712204931191</v>
@@ -32327,25 +32329,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>86.75305885077071</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>69.62697801251417</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.54379089706033</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R18" t="n">
-        <v>22.63860307651134</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S18" t="n">
-        <v>6.772710089645765</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T18" t="n">
-        <v>1.46968608556894</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02398834742495551</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3056875748360449</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H19" t="n">
-        <v>2.717840438087746</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I19" t="n">
-        <v>9.192859068705788</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J19" t="n">
-        <v>21.61211154090837</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K19" t="n">
-        <v>35.5153382400423</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L19" t="n">
-        <v>45.44740544426072</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M19" t="n">
-        <v>47.91791684452655</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N19" t="n">
-        <v>46.77853588377406</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O19" t="n">
-        <v>43.20754921409843</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P19" t="n">
-        <v>36.97152268744308</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q19" t="n">
-        <v>25.59716592558918</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R19" t="n">
-        <v>13.7448249558098</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S19" t="n">
-        <v>5.327300736006344</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T19" t="n">
-        <v>1.306119637935828</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01667386771832974</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6814780105984002</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H20" t="n">
-        <v>6.979186676040868</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I20" t="n">
-        <v>26.27268100359485</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J20" t="n">
-        <v>57.83959430202602</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K20" t="n">
-        <v>86.68655849065632</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L20" t="n">
-        <v>107.5423411575071</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M20" t="n">
-        <v>119.6615757284864</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N20" t="n">
-        <v>121.5978251260991</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O20" t="n">
-        <v>114.8213781582113</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P20" t="n">
-        <v>97.99738977156326</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q20" t="n">
-        <v>73.59195851700804</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R20" t="n">
-        <v>42.80789308325179</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S20" t="n">
-        <v>15.52918016651106</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T20" t="n">
-        <v>2.983169991394498</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U20" t="n">
-        <v>0.054518240847872</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3646228808593235</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H21" t="n">
-        <v>3.521489401983468</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I21" t="n">
-        <v>12.55390181906004</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J21" t="n">
-        <v>34.44886612539776</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K21" t="n">
-        <v>58.87859914297244</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L21" t="n">
-        <v>79.16954261816147</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
         <v>92.38712204931191</v>
@@ -32564,25 +32566,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>86.75305885077071</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>69.62697801251417</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.54379089706033</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R21" t="n">
-        <v>22.63860307651134</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S21" t="n">
-        <v>6.772710089645765</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T21" t="n">
-        <v>1.46968608556894</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02398834742495551</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3056875748360449</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H22" t="n">
-        <v>2.717840438087746</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I22" t="n">
-        <v>9.192859068705788</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J22" t="n">
-        <v>21.61211154090837</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K22" t="n">
-        <v>35.5153382400423</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L22" t="n">
-        <v>45.44740544426072</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M22" t="n">
-        <v>47.91791684452655</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N22" t="n">
-        <v>46.77853588377406</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O22" t="n">
-        <v>43.20754921409843</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P22" t="n">
-        <v>36.97152268744308</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q22" t="n">
-        <v>25.59716592558918</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R22" t="n">
-        <v>13.7448249558098</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S22" t="n">
-        <v>5.327300736006344</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T22" t="n">
-        <v>1.306119637935828</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01667386771832974</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6814780105984002</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H23" t="n">
-        <v>6.979186676040868</v>
+        <v>8.558753306785929</v>
       </c>
       <c r="I23" t="n">
-        <v>26.27268100359485</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J23" t="n">
-        <v>57.83959430202602</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K23" t="n">
-        <v>86.68655849065632</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L23" t="n">
-        <v>107.5423411575071</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M23" t="n">
-        <v>119.6615757284864</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N23" t="n">
-        <v>121.5978251260991</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O23" t="n">
-        <v>114.8213781582113</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P23" t="n">
-        <v>97.99738977156326</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q23" t="n">
-        <v>73.59195851700804</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R23" t="n">
-        <v>42.80789308325179</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S23" t="n">
-        <v>15.52918016651106</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T23" t="n">
-        <v>2.983169991394498</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U23" t="n">
-        <v>0.054518240847872</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3646228808593235</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H24" t="n">
-        <v>3.521489401983468</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I24" t="n">
-        <v>12.55390181906004</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J24" t="n">
-        <v>34.44886612539776</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K24" t="n">
-        <v>58.87859914297244</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L24" t="n">
-        <v>79.16954261816147</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
         <v>92.38712204931191</v>
@@ -32801,25 +32803,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>86.75305885077071</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>69.62697801251417</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.54379089706033</v>
+        <v>57.07782908545823</v>
       </c>
       <c r="R24" t="n">
-        <v>22.63860307651134</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S24" t="n">
-        <v>6.772710089645765</v>
+        <v>8.305545841702699</v>
       </c>
       <c r="T24" t="n">
-        <v>1.46968608556894</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02398834742495551</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3056875748360449</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H25" t="n">
-        <v>2.717840438087746</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I25" t="n">
-        <v>9.192859068705788</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J25" t="n">
-        <v>21.61211154090837</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K25" t="n">
-        <v>35.5153382400423</v>
+        <v>43.55335839447932</v>
       </c>
       <c r="L25" t="n">
-        <v>45.44740544426072</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M25" t="n">
-        <v>47.91791684452655</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N25" t="n">
-        <v>46.77853588377406</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O25" t="n">
-        <v>43.20754921409843</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P25" t="n">
-        <v>36.97152268744308</v>
+        <v>45.33911424727332</v>
       </c>
       <c r="Q25" t="n">
-        <v>25.59716592558918</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R25" t="n">
-        <v>13.7448249558098</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S25" t="n">
-        <v>5.327300736006344</v>
+        <v>6.533003759171898</v>
       </c>
       <c r="T25" t="n">
-        <v>1.306119637935828</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01667386771832974</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6814780105984001</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H26" t="n">
-        <v>6.979186676040867</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I26" t="n">
-        <v>26.27268100359485</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J26" t="n">
-        <v>57.83959430202601</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K26" t="n">
-        <v>86.68655849065631</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L26" t="n">
-        <v>107.5423411575071</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M26" t="n">
-        <v>119.6615757284864</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N26" t="n">
-        <v>121.5978251260991</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O26" t="n">
-        <v>114.8213781582113</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P26" t="n">
-        <v>97.99738977156325</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q26" t="n">
-        <v>73.59195851700804</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R26" t="n">
-        <v>42.80789308325178</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S26" t="n">
-        <v>15.52918016651106</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T26" t="n">
-        <v>2.983169991394498</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U26" t="n">
-        <v>0.054518240847872</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3646228808593235</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H27" t="n">
-        <v>3.521489401983467</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I27" t="n">
-        <v>12.55390181906004</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J27" t="n">
-        <v>34.44886612539776</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K27" t="n">
-        <v>58.87859914297243</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L27" t="n">
-        <v>79.16954261816146</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
         <v>92.38712204931191</v>
@@ -33038,25 +33040,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>86.75305885077071</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>69.62697801251416</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.54379089706032</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R27" t="n">
-        <v>22.63860307651134</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S27" t="n">
-        <v>6.772710089645764</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T27" t="n">
-        <v>1.46968608556894</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0239883474249555</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3056875748360448</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H28" t="n">
-        <v>2.717840438087746</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I28" t="n">
-        <v>9.192859068705786</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J28" t="n">
-        <v>21.61211154090837</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K28" t="n">
-        <v>35.51533824004229</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L28" t="n">
-        <v>45.44740544426071</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M28" t="n">
-        <v>47.91791684452654</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N28" t="n">
-        <v>46.77853588377405</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O28" t="n">
-        <v>43.20754921409843</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P28" t="n">
-        <v>36.97152268744308</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.59716592558917</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R28" t="n">
-        <v>13.7448249558098</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S28" t="n">
-        <v>5.327300736006343</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T28" t="n">
-        <v>1.306119637935828</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01667386771832974</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6814780105984002</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H29" t="n">
-        <v>6.979186676040868</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I29" t="n">
-        <v>26.27268100359485</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J29" t="n">
-        <v>57.83959430202602</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K29" t="n">
-        <v>86.68655849065632</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L29" t="n">
-        <v>107.5423411575071</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M29" t="n">
-        <v>119.6615757284864</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N29" t="n">
-        <v>121.5978251260991</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O29" t="n">
-        <v>114.8213781582113</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P29" t="n">
-        <v>97.99738977156326</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q29" t="n">
-        <v>73.59195851700804</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R29" t="n">
-        <v>42.80789308325179</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S29" t="n">
-        <v>15.52918016651106</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T29" t="n">
-        <v>2.983169991394498</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U29" t="n">
-        <v>0.054518240847872</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3646228808593235</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H30" t="n">
-        <v>3.521489401983468</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I30" t="n">
-        <v>12.55390181906004</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J30" t="n">
-        <v>34.44886612539776</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K30" t="n">
-        <v>58.87859914297244</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L30" t="n">
-        <v>79.16954261816147</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931193</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>86.75305885077071</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>69.62697801251417</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.54379089706033</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R30" t="n">
-        <v>22.63860307651134</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S30" t="n">
-        <v>6.772710089645765</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T30" t="n">
-        <v>1.46968608556894</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02398834742495551</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3056875748360449</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H31" t="n">
-        <v>2.717840438087746</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I31" t="n">
-        <v>9.192859068705788</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J31" t="n">
-        <v>21.61211154090837</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K31" t="n">
-        <v>35.5153382400423</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L31" t="n">
-        <v>45.44740544426072</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M31" t="n">
-        <v>47.91791684452655</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N31" t="n">
-        <v>46.77853588377406</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O31" t="n">
-        <v>43.20754921409843</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P31" t="n">
-        <v>36.97152268744308</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.59716592558918</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R31" t="n">
-        <v>13.7448249558098</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S31" t="n">
-        <v>5.327300736006344</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T31" t="n">
-        <v>1.306119637935828</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01667386771832974</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6814780105984002</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H32" t="n">
-        <v>6.979186676040868</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I32" t="n">
-        <v>26.27268100359485</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J32" t="n">
-        <v>57.83959430202602</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K32" t="n">
-        <v>86.68655849065632</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L32" t="n">
-        <v>107.5423411575071</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M32" t="n">
-        <v>119.6615757284864</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N32" t="n">
-        <v>121.5978251260991</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O32" t="n">
-        <v>114.8213781582113</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P32" t="n">
-        <v>97.99738977156326</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q32" t="n">
-        <v>73.59195851700804</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R32" t="n">
-        <v>42.80789308325179</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S32" t="n">
-        <v>15.52918016651106</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T32" t="n">
-        <v>2.983169991394498</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U32" t="n">
-        <v>0.054518240847872</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3646228808593235</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H33" t="n">
-        <v>3.521489401983468</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I33" t="n">
-        <v>12.55390181906004</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J33" t="n">
-        <v>34.44886612539776</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K33" t="n">
-        <v>58.87859914297244</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L33" t="n">
-        <v>79.16954261816147</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931193</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>86.75305885077071</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>69.62697801251417</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.54379089706033</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R33" t="n">
-        <v>22.63860307651134</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S33" t="n">
-        <v>6.772710089645765</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T33" t="n">
-        <v>1.46968608556894</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02398834742495551</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3056875748360449</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H34" t="n">
-        <v>2.717840438087746</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I34" t="n">
-        <v>9.192859068705788</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J34" t="n">
-        <v>21.61211154090837</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K34" t="n">
-        <v>35.5153382400423</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L34" t="n">
-        <v>45.44740544426072</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M34" t="n">
-        <v>47.91791684452655</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N34" t="n">
-        <v>46.77853588377406</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O34" t="n">
-        <v>43.20754921409843</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P34" t="n">
-        <v>36.97152268744308</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.59716592558918</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R34" t="n">
-        <v>13.7448249558098</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S34" t="n">
-        <v>5.327300736006344</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T34" t="n">
-        <v>1.306119637935828</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01667386771832974</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6814780105984002</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H35" t="n">
-        <v>6.979186676040868</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I35" t="n">
-        <v>26.27268100359485</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J35" t="n">
-        <v>57.83959430202602</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K35" t="n">
-        <v>86.68655849065632</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L35" t="n">
-        <v>107.5423411575071</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M35" t="n">
-        <v>119.6615757284864</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N35" t="n">
-        <v>121.5978251260991</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O35" t="n">
-        <v>114.8213781582113</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P35" t="n">
-        <v>97.99738977156326</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q35" t="n">
-        <v>73.59195851700804</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R35" t="n">
-        <v>42.80789308325179</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S35" t="n">
-        <v>15.52918016651106</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T35" t="n">
-        <v>2.983169991394498</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U35" t="n">
-        <v>0.054518240847872</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3646228808593235</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H36" t="n">
-        <v>3.521489401983468</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I36" t="n">
-        <v>12.55390181906004</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J36" t="n">
-        <v>34.44886612539776</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K36" t="n">
-        <v>58.87859914297244</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L36" t="n">
-        <v>79.16954261816147</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
         <v>92.38712204931191</v>
@@ -33749,25 +33751,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>86.75305885077071</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>69.62697801251417</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.54379089706033</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R36" t="n">
-        <v>22.63860307651134</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S36" t="n">
-        <v>6.772710089645765</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T36" t="n">
-        <v>1.46968608556894</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02398834742495551</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3056875748360449</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H37" t="n">
-        <v>2.717840438087746</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I37" t="n">
-        <v>9.192859068705788</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J37" t="n">
-        <v>21.61211154090837</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K37" t="n">
-        <v>35.5153382400423</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L37" t="n">
-        <v>45.44740544426072</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M37" t="n">
-        <v>47.91791684452655</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N37" t="n">
-        <v>46.77853588377406</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O37" t="n">
-        <v>43.20754921409843</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P37" t="n">
-        <v>36.97152268744308</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.59716592558918</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R37" t="n">
-        <v>13.7448249558098</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S37" t="n">
-        <v>5.327300736006344</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T37" t="n">
-        <v>1.306119637935828</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01667386771832974</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6814780105984002</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H38" t="n">
-        <v>6.979186676040868</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I38" t="n">
-        <v>26.27268100359485</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J38" t="n">
-        <v>57.83959430202602</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K38" t="n">
-        <v>86.68655849065632</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L38" t="n">
-        <v>107.5423411575071</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M38" t="n">
-        <v>119.6615757284864</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N38" t="n">
-        <v>121.5978251260991</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O38" t="n">
-        <v>114.8213781582113</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P38" t="n">
-        <v>97.99738977156326</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q38" t="n">
-        <v>73.59195851700804</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R38" t="n">
-        <v>42.80789308325179</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S38" t="n">
-        <v>15.52918016651106</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T38" t="n">
-        <v>2.983169991394498</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U38" t="n">
-        <v>0.054518240847872</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3646228808593235</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H39" t="n">
-        <v>3.521489401983468</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I39" t="n">
-        <v>12.55390181906004</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J39" t="n">
-        <v>34.44886612539776</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K39" t="n">
-        <v>58.87859914297244</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L39" t="n">
-        <v>79.16954261816147</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
         <v>92.38712204931191</v>
@@ -33986,25 +33988,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>86.75305885077071</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>69.62697801251417</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.54379089706033</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R39" t="n">
-        <v>22.63860307651134</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S39" t="n">
-        <v>6.772710089645765</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T39" t="n">
-        <v>1.46968608556894</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02398834742495551</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3056875748360449</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H40" t="n">
-        <v>2.717840438087746</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I40" t="n">
-        <v>9.192859068705788</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J40" t="n">
-        <v>21.61211154090837</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K40" t="n">
-        <v>35.5153382400423</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L40" t="n">
-        <v>45.44740544426072</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M40" t="n">
-        <v>47.91791684452655</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N40" t="n">
-        <v>46.77853588377406</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O40" t="n">
-        <v>43.20754921409843</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P40" t="n">
-        <v>36.97152268744308</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.59716592558918</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R40" t="n">
-        <v>13.7448249558098</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S40" t="n">
-        <v>5.327300736006344</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T40" t="n">
-        <v>1.306119637935828</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01667386771832974</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6814780105984002</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H41" t="n">
-        <v>6.979186676040868</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I41" t="n">
-        <v>26.27268100359485</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J41" t="n">
-        <v>57.83959430202602</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K41" t="n">
-        <v>86.68655849065632</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L41" t="n">
-        <v>107.5423411575071</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M41" t="n">
-        <v>119.6615757284864</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N41" t="n">
-        <v>121.5978251260991</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O41" t="n">
-        <v>114.8213781582113</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P41" t="n">
-        <v>97.99738977156326</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q41" t="n">
-        <v>73.59195851700804</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R41" t="n">
-        <v>42.80789308325179</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S41" t="n">
-        <v>15.52918016651106</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T41" t="n">
-        <v>2.983169991394498</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U41" t="n">
-        <v>0.054518240847872</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3646228808593235</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H42" t="n">
-        <v>3.521489401983468</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I42" t="n">
-        <v>12.55390181906004</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J42" t="n">
-        <v>34.44886612539776</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K42" t="n">
-        <v>58.87859914297244</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L42" t="n">
-        <v>79.16954261816147</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
         <v>92.38712204931191</v>
@@ -34223,25 +34225,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>86.75305885077071</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>69.62697801251417</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.54379089706033</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R42" t="n">
-        <v>22.63860307651134</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S42" t="n">
-        <v>6.772710089645765</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T42" t="n">
-        <v>1.46968608556894</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02398834742495551</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3056875748360449</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H43" t="n">
-        <v>2.717840438087746</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I43" t="n">
-        <v>9.192859068705788</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J43" t="n">
-        <v>21.61211154090837</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K43" t="n">
-        <v>35.5153382400423</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L43" t="n">
-        <v>45.44740544426072</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M43" t="n">
-        <v>47.91791684452655</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N43" t="n">
-        <v>46.77853588377406</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O43" t="n">
-        <v>43.20754921409843</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P43" t="n">
-        <v>36.97152268744308</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.59716592558918</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R43" t="n">
-        <v>13.7448249558098</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S43" t="n">
-        <v>5.327300736006344</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T43" t="n">
-        <v>1.306119637935828</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01667386771832974</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6814780105984002</v>
+        <v>0.8357137367788041</v>
       </c>
       <c r="H44" t="n">
-        <v>6.979186676040868</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I44" t="n">
-        <v>26.27268100359485</v>
+        <v>32.21885383716488</v>
       </c>
       <c r="J44" t="n">
-        <v>57.83959430202602</v>
+        <v>70.93015876693009</v>
       </c>
       <c r="K44" t="n">
-        <v>86.68655849065632</v>
+        <v>106.3059212447769</v>
       </c>
       <c r="L44" t="n">
-        <v>107.5423411575071</v>
+        <v>131.8818955167212</v>
       </c>
       <c r="M44" t="n">
-        <v>119.6615757284864</v>
+        <v>146.7440196831613</v>
       </c>
       <c r="N44" t="n">
-        <v>121.5978251260991</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O44" t="n">
-        <v>114.8213781582113</v>
+        <v>140.8083628676899</v>
       </c>
       <c r="P44" t="n">
-        <v>97.99738977156326</v>
+        <v>120.1766799909631</v>
       </c>
       <c r="Q44" t="n">
-        <v>73.59195851700804</v>
+        <v>90.24768179257215</v>
       </c>
       <c r="R44" t="n">
-        <v>42.80789308325179</v>
+        <v>52.49640301793161</v>
       </c>
       <c r="S44" t="n">
-        <v>15.52918016651106</v>
+        <v>19.04382677684702</v>
       </c>
       <c r="T44" t="n">
-        <v>2.983169991394498</v>
+        <v>3.658336882749217</v>
       </c>
       <c r="U44" t="n">
-        <v>0.054518240847872</v>
+        <v>0.06685709894230432</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3646228808593235</v>
+        <v>0.4471462696359426</v>
       </c>
       <c r="H45" t="n">
-        <v>3.521489401983468</v>
+        <v>4.318491604115551</v>
       </c>
       <c r="I45" t="n">
-        <v>12.55390181906004</v>
+        <v>15.39516761685153</v>
       </c>
       <c r="J45" t="n">
-        <v>34.44886612539776</v>
+        <v>42.24551664135018</v>
       </c>
       <c r="K45" t="n">
-        <v>58.87859914297244</v>
+        <v>72.20431670695834</v>
       </c>
       <c r="L45" t="n">
-        <v>79.16954261816147</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>92.38712204931191</v>
@@ -34460,25 +34462,25 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>86.75305885077071</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>69.62697801251417</v>
+        <v>85.38532582197224</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.54379089706033</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R45" t="n">
-        <v>22.63860307651134</v>
+        <v>27.76229207441406</v>
       </c>
       <c r="S45" t="n">
-        <v>6.772710089645765</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T45" t="n">
-        <v>1.46968608556894</v>
+        <v>1.802313253488733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02398834742495551</v>
+        <v>0.02941751773920676</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3056875748360449</v>
+        <v>0.3748724118460663</v>
       </c>
       <c r="H46" t="n">
-        <v>2.717840438087746</v>
+        <v>3.33295653441321</v>
       </c>
       <c r="I46" t="n">
-        <v>9.192859068705788</v>
+        <v>11.27343580351625</v>
       </c>
       <c r="J46" t="n">
-        <v>21.61211154090837</v>
+        <v>26.50347951751689</v>
       </c>
       <c r="K46" t="n">
-        <v>35.5153382400423</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L46" t="n">
-        <v>45.44740544426072</v>
+        <v>55.73330384845972</v>
       </c>
       <c r="M46" t="n">
-        <v>47.91791684452655</v>
+        <v>58.76295452237927</v>
       </c>
       <c r="N46" t="n">
-        <v>46.77853588377406</v>
+        <v>57.36570280549853</v>
       </c>
       <c r="O46" t="n">
-        <v>43.20754921409843</v>
+        <v>52.9865114489331</v>
       </c>
       <c r="P46" t="n">
-        <v>36.97152268744308</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.59716592558918</v>
+        <v>31.39045259558288</v>
       </c>
       <c r="R46" t="n">
-        <v>13.7448249558098</v>
+        <v>16.85562680900585</v>
       </c>
       <c r="S46" t="n">
-        <v>5.327300736006344</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T46" t="n">
-        <v>1.306119637935828</v>
+        <v>1.601727577887737</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01667386771832974</v>
+        <v>0.02044758610069455</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_13_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_13_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-68735.76098094181</v>
+        <v>-82414.14286205504</v>
       </c>
     </row>
     <row r="7">
@@ -23758,7 +23758,7 @@
         <v>46.74967917541601</v>
       </c>
       <c r="K17" t="n">
-        <v>36.75248193446046</v>
+        <v>36.75248193446048</v>
       </c>
       <c r="L17" t="n">
         <v>21.36627421377045</v>
@@ -23773,7 +23773,7 @@
         <v>8.75547455640654</v>
       </c>
       <c r="P17" t="n">
-        <v>30.12476724996209</v>
+        <v>30.1247672499621</v>
       </c>
       <c r="Q17" t="n">
         <v>54.25101662582001</v>
@@ -23855,7 +23855,7 @@
         <v>1.698038997342408</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.91032407045577</v>
+        <v>33.91032407045576</v>
       </c>
       <c r="R18" t="n">
         <v>66.92938550216252</v>
@@ -23931,7 +23931,7 @@
         <v>37.0102385447647</v>
       </c>
       <c r="P19" t="n">
-        <v>44.18408838467263</v>
+        <v>44.18408838467262</v>
       </c>
       <c r="Q19" t="n">
         <v>67.08779846355691</v>
@@ -24232,7 +24232,7 @@
         <v>46.74967917541601</v>
       </c>
       <c r="K23" t="n">
-        <v>36.75248193446048</v>
+        <v>36.75248193446046</v>
       </c>
       <c r="L23" t="n">
         <v>21.36627421377045</v>
@@ -24247,7 +24247,7 @@
         <v>8.75547455640654</v>
       </c>
       <c r="P23" t="n">
-        <v>30.1247672499621</v>
+        <v>30.12476724996209</v>
       </c>
       <c r="Q23" t="n">
         <v>54.25101662582001</v>
@@ -24329,7 +24329,7 @@
         <v>1.698038997342408</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.91032407045576</v>
+        <v>33.91032407045577</v>
       </c>
       <c r="R24" t="n">
         <v>66.92938550216252</v>
@@ -24405,7 +24405,7 @@
         <v>37.0102385447647</v>
       </c>
       <c r="P25" t="n">
-        <v>44.18408838467262</v>
+        <v>44.18408838467263</v>
       </c>
       <c r="Q25" t="n">
         <v>67.08779846355691</v>
@@ -26328,7 +26328,7 @@
         <v>27885.94644727988</v>
       </c>
       <c r="G2" t="n">
-        <v>27885.94644727987</v>
+        <v>27885.94644727988</v>
       </c>
       <c r="H2" t="n">
         <v>27885.94644727988</v>
@@ -26337,22 +26337,22 @@
         <v>27885.94644727988</v>
       </c>
       <c r="J2" t="n">
-        <v>27885.94644727987</v>
+        <v>27885.94644727988</v>
       </c>
       <c r="K2" t="n">
         <v>27885.94644727987</v>
       </c>
       <c r="L2" t="n">
+        <v>27885.94644727987</v>
+      </c>
+      <c r="M2" t="n">
+        <v>27885.94644727987</v>
+      </c>
+      <c r="N2" t="n">
         <v>27885.94644727988</v>
       </c>
-      <c r="M2" t="n">
-        <v>27885.94644727988</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>27885.94644727987</v>
-      </c>
-      <c r="O2" t="n">
-        <v>27885.94644727988</v>
       </c>
       <c r="P2" t="n">
         <v>27885.94644727988</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-35430.92178093357</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-35430.92178093357</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-35430.92178093357</v>
       </c>
       <c r="E6" t="n">
-        <v>-143660.3823820763</v>
+        <v>-145153.8603135957</v>
       </c>
       <c r="F6" t="n">
-        <v>23354.07978116261</v>
+        <v>21860.60184964327</v>
       </c>
       <c r="G6" t="n">
-        <v>23354.07978116261</v>
+        <v>21860.60184964326</v>
       </c>
       <c r="H6" t="n">
-        <v>23354.07978116261</v>
+        <v>21860.60184964326</v>
       </c>
       <c r="I6" t="n">
-        <v>23354.07978116261</v>
+        <v>21860.60184964326</v>
       </c>
       <c r="J6" t="n">
-        <v>23354.07978116261</v>
+        <v>21860.60184964327</v>
       </c>
       <c r="K6" t="n">
-        <v>23354.07978116261</v>
+        <v>21860.60184964326</v>
       </c>
       <c r="L6" t="n">
-        <v>23354.07978116261</v>
+        <v>21860.60184964326</v>
       </c>
       <c r="M6" t="n">
-        <v>23354.07978116261</v>
+        <v>21860.60184964326</v>
       </c>
       <c r="N6" t="n">
-        <v>23354.07978116261</v>
+        <v>21860.60184964326</v>
       </c>
       <c r="O6" t="n">
-        <v>23354.07978116261</v>
+        <v>21860.60184964326</v>
       </c>
       <c r="P6" t="n">
-        <v>23354.07978116261</v>
+        <v>21860.60184964326</v>
       </c>
     </row>
   </sheetData>
@@ -32229,7 +32229,7 @@
         <v>0.8357137367788041</v>
       </c>
       <c r="H17" t="n">
-        <v>8.558753306785931</v>
+        <v>8.558753306785929</v>
       </c>
       <c r="I17" t="n">
         <v>32.21885383716488</v>
@@ -32335,13 +32335,13 @@
         <v>85.38532582197224</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.07782908545822</v>
+        <v>57.07782908545823</v>
       </c>
       <c r="R18" t="n">
         <v>27.76229207441406</v>
       </c>
       <c r="S18" t="n">
-        <v>8.305545841702701</v>
+        <v>8.305545841702699</v>
       </c>
       <c r="T18" t="n">
         <v>1.802313253488733</v>
@@ -32396,7 +32396,7 @@
         <v>26.50347951751689</v>
       </c>
       <c r="K19" t="n">
-        <v>43.55335839447933</v>
+        <v>43.55335839447932</v>
       </c>
       <c r="L19" t="n">
         <v>55.73330384845972</v>
@@ -32411,7 +32411,7 @@
         <v>52.9865114489331</v>
       </c>
       <c r="P19" t="n">
-        <v>45.33911424727331</v>
+        <v>45.33911424727332</v>
       </c>
       <c r="Q19" t="n">
         <v>31.39045259558288</v>
@@ -32420,7 +32420,7 @@
         <v>16.85562680900585</v>
       </c>
       <c r="S19" t="n">
-        <v>6.533003759171899</v>
+        <v>6.533003759171898</v>
       </c>
       <c r="T19" t="n">
         <v>1.601727577887737</v>
@@ -32703,7 +32703,7 @@
         <v>0.8357137367788041</v>
       </c>
       <c r="H23" t="n">
-        <v>8.558753306785929</v>
+        <v>8.558753306785931</v>
       </c>
       <c r="I23" t="n">
         <v>32.21885383716488</v>
@@ -32809,13 +32809,13 @@
         <v>85.38532582197224</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.07782908545823</v>
+        <v>57.07782908545822</v>
       </c>
       <c r="R24" t="n">
         <v>27.76229207441406</v>
       </c>
       <c r="S24" t="n">
-        <v>8.305545841702699</v>
+        <v>8.305545841702701</v>
       </c>
       <c r="T24" t="n">
         <v>1.802313253488733</v>
@@ -32870,7 +32870,7 @@
         <v>26.50347951751689</v>
       </c>
       <c r="K25" t="n">
-        <v>43.55335839447932</v>
+        <v>43.55335839447933</v>
       </c>
       <c r="L25" t="n">
         <v>55.73330384845972</v>
@@ -32885,7 +32885,7 @@
         <v>52.9865114489331</v>
       </c>
       <c r="P25" t="n">
-        <v>45.33911424727332</v>
+        <v>45.33911424727331</v>
       </c>
       <c r="Q25" t="n">
         <v>31.39045259558288</v>
@@ -32894,7 +32894,7 @@
         <v>16.85562680900585</v>
       </c>
       <c r="S25" t="n">
-        <v>6.533003759171898</v>
+        <v>6.533003759171899</v>
       </c>
       <c r="T25" t="n">
         <v>1.601727577887737</v>
